--- a/report/reliability/comb/Escola de Enfermagem e Farmácia - ESENFAR-Presencial.xlsx
+++ b/report/reliability/comb/Escola de Enfermagem e Farmácia - ESENFAR-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.6704829574194973</v>
+        <v>0.6075202999420001</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.6966337244669105</v>
+        <v>0.6766590623438083</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8592207412182284</v>
+        <v>0.8517323262917884</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.16062463947310343</v>
+        <v>0.1386570511532799</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>2.296345311431711</v>
+        <v>2.0927107691612497</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.06062321064363831</v>
+        <v>0.07016790203303047</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.4105392156862746</v>
+        <v>1.8009049773755657</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.5624949191719287</v>
+        <v>0.45716166097480043</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.0866431513869168</v>
+        <v>0.0517876510043209</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.628986272439282</v>
+        <v>0.6073518694690202</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.6562253400094225</v>
+        <v>0.6705092554169637</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8373726868588895</v>
+        <v>0.8569827151904243</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.1478735491619453</v>
+        <v>0.14499384088657455</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>1.9088822312482505</v>
+        <v>2.0349866162871413</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.06870919521739645</v>
+        <v>0.07129220083097845</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.05944009880716869</v>
+        <v>0.06983072800423695</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.07147612307959182</v>
+        <v>0.05646542628863161</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.6334693506920994</v>
+        <v>0.5709883240596041</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.6610362959839107</v>
+        <v>0.6479625316063435</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8322561789503157</v>
+        <v>0.8371253052064854</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.15059019457328113</v>
+        <v>0.13298598545208387</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>1.9501683754096986</v>
+        <v>1.8406067245142688</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.06788686253341897</v>
+        <v>0.07684537848895409</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.05719126872189139</v>
+        <v>0.06858930304619175</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.10758003071197221</v>
+        <v>0.04581790690063568</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.6326531303067402</v>
+        <v>0.5822236162992956</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.6599053879880517</v>
+        <v>0.658836002615776</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8334574569580658</v>
+        <v>0.8356155181597895</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.14994625473172923</v>
+        <v>0.13862048731746096</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>1.9403582552635894</v>
+        <v>1.931141643512241</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.06807960651123406</v>
+        <v>0.07494209282415323</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.055637078028857895</v>
+        <v>0.06669903762373915</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.07147612307959182</v>
+        <v>0.047422990252214414</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.624526497034628</v>
+        <v>0.5964058378758572</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.6539126153832475</v>
+        <v>0.645219783684263</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8274963468252522</v>
+        <v>0.8262672396998283</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.1465884573142645</v>
+        <v>0.13160814724618794</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>1.8894436620605852</v>
+        <v>1.8186464577552688</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.06957938359019036</v>
+        <v>0.07271282453366565</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.05556591795427317</v>
+        <v>0.0533365170808655</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.06884449597865927</v>
+        <v>0.05646542628863161</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.665235153806921</v>
+        <v>0.5784391252775327</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.6943045995191927</v>
+        <v>0.6402314967195195</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8139083247190346</v>
+        <v>0.8194612782947103</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.17113938158932576</v>
+        <v>0.1291452339511156</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>2.2712301147716585</v>
+        <v>1.7795651672719839</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.06175465706109823</v>
+        <v>0.07494155247872616</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.0521247621518257</v>
+        <v>0.052821808788561395</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.12109561772456812</v>
+        <v>0.047422990252214414</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.6684573344926096</v>
+        <v>0.5805407832894163</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.6950928776445563</v>
+        <v>0.6396131679219962</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8148319221185134</v>
+        <v>0.815032819985711</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.17166723904510023</v>
+        <v>0.12884373349620343</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>2.2796872446759555</v>
+        <v>1.774796166202752</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.06111540985434042</v>
+        <v>0.07444790299392783</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.052129212827504864</v>
+        <v>0.05175937401901978</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.12109561772456812</v>
+        <v>0.05534136008122968</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.6566207110559447</v>
+        <v>0.6003028519723758</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.694080392050798</v>
+        <v>0.677385494606795</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8418102645143762</v>
+        <v>0.8434576975195976</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.17098961923949654</v>
+        <v>0.1489165311492691</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>2.2688326410448645</v>
+        <v>2.099674637323552</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.06291701277943841</v>
+        <v>0.07238698800734397</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.060761697115306955</v>
+        <v>0.06313614300457293</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.10758003071197221</v>
+        <v>0.057216185008945875</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7029075781920631</v>
+        <v>0.5778965100923591</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7087995064410053</v>
+        <v>0.6615464901605932</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8474097025799217</v>
+        <v>0.8281608051844214</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.18118573931045287</v>
+        <v>0.14006946555139574</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>2.434060113628923</v>
+        <v>1.9546155407709944</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.05360483130923259</v>
+        <v>0.0748561172056963</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.057625811098024934</v>
+        <v>0.062318220531995414</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.12985309660494151</v>
+        <v>0.056063369743567584</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.6741683071680261</v>
+        <v>0.6362148533881788</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.694353523248333</v>
+        <v>0.6777990902142357</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8672459906617059</v>
+        <v>0.8467674308684953</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.17117208284626848</v>
+        <v>0.1491566386839893</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>2.27175372877759</v>
+        <v>2.103653557852812</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.060338458400368354</v>
+        <v>0.06291020378537189</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.06590501319072259</v>
+        <v>0.06321125491945215</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.07074343790106882</v>
+        <v>0.05649417534660798</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.6248975986816757</v>
+        <v>0.6049662240361412</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.6544329061408249</v>
+        <v>0.6730335341323901</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8491225323181653</v>
+        <v>0.8572708526732411</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.14687639979707823</v>
+        <v>0.14641886979764987</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>1.89379404975266</v>
+        <v>2.0584176189031704</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.06955933012435676</v>
+        <v>0.07063651347357175</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.06425642220782377</v>
+        <v>0.07061702778416935</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.06884449597865927</v>
+        <v>0.04348481617251794</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.640934741962799</v>
+        <v>0.557131096587759</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.6713050529684026</v>
+        <v>0.6427984212226743</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8222829600483881</v>
+        <v>0.8431123636144484</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.1565927141471353</v>
+        <v>0.13040577710868903</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>2.042334568970024</v>
+        <v>1.7995396980688756</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.06606656189709595</v>
+        <v>0.07947810977903474</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.05853250775523031</v>
+        <v>0.07088292268265883</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.08240896037335851</v>
+        <v>0.04348481617251794</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.6515206042430302</v>
+        <v>0.5712301785651565</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.6815486413337489</v>
+        <v>0.6606525477868861</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8278549625037146</v>
+        <v>0.8192833732364854</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.16287404192116364</v>
+        <v>0.1395895622882417</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>2.140196996452563</v>
+        <v>1.946832202447152</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.06413679673068043</v>
+        <v>0.07641347675182089</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.05832116214091883</v>
+        <v>0.0651553111607292</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.10758003071197221</v>
+        <v>0.05534136008122968</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.5775462321737883</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.664716342088853</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8196827320978324</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.14178739206377708</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>1.982549183071156</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.07521774255450665</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.06470723675475282</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.047422990252214414</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>68.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.578918894803682</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6018893701426656</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.558418744210636</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.4560381636243526</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.338235294117647</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.0873807241866797</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>68.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5540619012323128</v>
+        <v>0.2570395980008446</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.575958889663137</v>
+        <v>0.38160490115703294</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5454710565347723</v>
+        <v>0.2758302034557426</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.4284637416433992</v>
+        <v>0.23783572647152482</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>4.088235294117647</v>
+        <v>0.9852941176470589</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.0753034159471797</v>
+        <v>0.12126781251816648</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>68.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5610679183831808</v>
+        <v>0.49777944207622266</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.582105319160957</v>
+        <v>0.5162777370252383</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.5521553017680777</v>
+        <v>0.45943935617035236</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.444474570056558</v>
+        <v>0.34119843935587274</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.5</v>
+        <v>3.338235294117647</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.014815621809527</v>
+        <v>1.0873807241866797</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>68.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6030231975351134</v>
+        <v>0.44498261536602063</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6141556191465437</v>
+        <v>0.45308457576053435</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.594190437154358</v>
+        <v>0.39975482488155867</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.4839302123363508</v>
+        <v>0.28281263280384183</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>4.0</v>
+        <v>4.088235294117647</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.092716729416306</v>
+        <v>1.0753034159471797</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>68.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.32100222234508824</v>
+        <v>0.4001515192564963</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.379816142963003</v>
+        <v>0.5317307360697291</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.403254660473663</v>
+        <v>0.5605474378714974</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.20196303979526362</v>
+        <v>0.35861605967307697</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.23529411764705882</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>0.848486748835806</v>
+        <v>0.2857456398198083</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>68.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.31430857379966975</v>
+        <v>0.45111313285291976</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.3747777241116437</v>
+        <v>0.5593532803079097</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.39772617740094496</v>
+        <v>0.6009331516278149</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.17842972063891804</v>
+        <v>0.3265562908018183</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.27941176470588236</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>0.9595643948788573</v>
+        <v>0.848486748835806</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>68.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.4427616233183324</v>
+        <v>0.4427696850129386</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.38124563010645224</v>
+        <v>0.5627347268534726</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.3255988500171456</v>
+        <v>0.6067170152306037</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.27430143564627557</v>
+        <v>0.29935343346321663</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.75</v>
+        <v>0.27941176470588236</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.2622533747586309</v>
+        <v>0.9595643948788573</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>68.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.36808830465416437</v>
+        <v>0.32053480870675405</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.28392328860261357</v>
+        <v>0.3376103823362728</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.22077573946778736</v>
+        <v>0.2866034480232269</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.11195147141286606</v>
+        <v>0.27642364831510413</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.7794117647058822</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.7775178755974526</v>
+        <v>0.2857456398198083</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>68.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.39947909972126916</v>
+        <v>0.48745169728114346</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.3795040082614069</v>
+        <v>0.43683371323642356</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.258821919648014</v>
+        <v>0.41485051660239713</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.19497842636173163</v>
+        <v>0.3004662432336714</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.3823529411764706</v>
+        <v>2.75</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.466332736614999</v>
+        <v>1.2622533747586309</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>68.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5978052714112115</v>
+        <v>0.418454863346558</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.6114071975458913</v>
+        <v>0.33491748161053525</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.5354258375604264</v>
+        <v>0.2781011573962877</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.4574545799364893</v>
+        <v>0.1303049830372722</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.4705882352941178</v>
+        <v>2.7794117647058822</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.2515135700338726</v>
+        <v>1.7775178755974526</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>68.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5171659632339416</v>
+        <v>0.4286769731855763</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5186646193147382</v>
+        <v>0.36562263973694176</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5082740029508895</v>
+        <v>0.2533263971626626</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.3685678441501872</v>
+        <v>0.1974273058343208</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.1470588235294117</v>
+        <v>1.3823529411764706</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.2003072477601144</v>
+        <v>1.466332736614999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>68.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.4611744650018546</v>
+        <v>0.563520829237859</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.45870911442981016</v>
+        <v>0.5452157915039503</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.44107026634285573</v>
+        <v>0.46695730303198696</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.3038983035862994</v>
+        <v>0.3928795024690688</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.4705882352941178</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.2515135700338726</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>68.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5060853890432516</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.4422160176573881</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.42687581347298986</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.3325410630613303</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.1470588235294117</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.2003072477601144</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>68.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.48087474496001986</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.41756648966783955</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.40107767339118544</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.3027854404827415</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.9558823529411764</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.2024083237392222</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.014705882352941176</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.08823529411764706</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.014705882352941176</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.36764705882352944</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.10294117647058823</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.014705882352941176</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.029411764705882353</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.29411764705882354</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.16176470588235295</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.5</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.0</v>
+        <v>0.014705882352941176</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.08823529411764706</v>
+        <v>0.9852941176470589</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.014705882352941176</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.3088235294117647</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.4852941176470588</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.10294117647058823</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.0</v>
+        <v>0.014705882352941176</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.0</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.08823529411764706</v>
+        <v>0.014705882352941176</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.3235294117647059</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.08823529411764706</v>
+        <v>0.36764705882352944</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.5</v>
+        <v>0.10294117647058823</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.9117647058823529</v>
+        <v>0.014705882352941176</v>
       </c>
       <c r="C47" t="n" s="110">
+        <v>0.0</v>
+      </c>
+      <c r="D47" t="n" s="111">
         <v>0.029411764705882353</v>
       </c>
-      <c r="D47" t="n" s="111">
-        <v>0.0</v>
-      </c>
       <c r="E47" t="n" s="112">
-        <v>0.029411764705882353</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.029411764705882353</v>
+        <v>0.16176470588235295</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.9117647058823529</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.029411764705882353</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.029411764705882353</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.014705882352941176</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.014705882352941176</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.08823529411764706</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.11764705882352941</v>
+        <v>0.029411764705882353</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.04411764705882353</v>
+        <v>0.0</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.47058823529411764</v>
+        <v>0.029411764705882353</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.2647058823529412</v>
+        <v>0.029411764705882353</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.014705882352941176</v>
+        <v>0.0</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.08823529411764706</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.22058823529411764</v>
+        <v>0.0</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.22058823529411764</v>
+        <v>0.029411764705882353</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.04411764705882353</v>
+        <v>0.029411764705882353</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.14705882352941177</v>
+        <v>0.014705882352941176</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.27941176470588236</v>
+        <v>0.014705882352941176</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.4264705882352941</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.17647058823529413</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.08823529411764706</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.20588235294117646</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.10294117647058823</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.1323529411764706</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.10294117647058823</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.07352941176470588</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.5441176470588235</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.14705882352941177</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.014705882352941176</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.16176470588235295</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C53" t="n" s="110">
+        <v>0.22058823529411764</v>
+      </c>
+      <c r="D53" t="n" s="111">
+        <v>0.22058823529411764</v>
+      </c>
+      <c r="E53" t="n" s="112">
         <v>0.04411764705882353</v>
       </c>
-      <c r="D53" t="n" s="111">
-        <v>0.39705882352941174</v>
-      </c>
-      <c r="E53" t="n" s="112">
+      <c r="F53" t="n" s="113">
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="G53" t="n" s="114">
         <v>0.27941176470588236</v>
-      </c>
-      <c r="F53" t="n" s="113">
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="G53" t="n" s="114">
-        <v>0.0</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
+        <v>27</v>
+      </c>
+      <c r="B54" t="n" s="109">
+        <v>0.4264705882352941</v>
+      </c>
+      <c r="C54" t="n" s="110">
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="D54" t="n" s="111">
+        <v>0.08823529411764706</v>
+      </c>
+      <c r="E54" t="n" s="112">
+        <v>0.20588235294117646</v>
+      </c>
+      <c r="F54" t="n" s="113">
+        <v>0.10294117647058823</v>
+      </c>
+      <c r="G54" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.1323529411764706</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.10294117647058823</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.07352941176470588</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.5441176470588235</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
         <v>29</v>
       </c>
-      <c r="B54" t="n" s="109">
+      <c r="B56" t="n" s="109">
+        <v>0.16176470588235295</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.04411764705882353</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.39705882352941174</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.27941176470588236</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
         <v>0.20588235294117646</v>
       </c>
-      <c r="C54" t="n" s="110">
+      <c r="C57" t="n" s="110">
         <v>0.029411764705882353</v>
       </c>
-      <c r="D54" t="n" s="111">
+      <c r="D57" t="n" s="111">
         <v>0.45588235294117646</v>
       </c>
-      <c r="E54" t="n" s="112">
+      <c r="E57" t="n" s="112">
         <v>0.22058823529411764</v>
       </c>
-      <c r="F54" t="n" s="113">
+      <c r="F57" t="n" s="113">
         <v>0.08823529411764706</v>
       </c>
-      <c r="G54" t="n" s="114">
-        <v>0.0</v>
-      </c>
-      <c r="H54" t="n" s="115">
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8329993681740229</v>
+        <v>0.8953613807982741</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8331057837694553</v>
+        <v>0.9794486130763356</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.829436945099145</v>
+        <v>0.9839932339797091</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5551512070162176</v>
+        <v>0.9407799476480557</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>4.991819384673087</v>
+        <v>47.65851651347799</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.033581050811777674</v>
+        <v>0.005063434054495496</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.7316176470588234</v>
+        <v>0.20098039215686275</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.8717328946896138</v>
+        <v>0.6890272564568648</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5736773922473917</v>
+        <v>0.9429916299436714</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8045520231213874</v>
+        <v>0.9867841409691631</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.80369535044257</v>
+        <v>0.9905579308557535</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7609220182440404</v>
+        <v>0.9812924992273191</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5771147377469023</v>
+        <v>0.9812924992273189</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.094122845559213</v>
+        <v>104.9089893034046</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.04135696320934044</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.017616638594430783</v>
-      </c>
+        <v>0.002698976529720315</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6478235860427262</v>
+        <v>0.981292499227319</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.7856507196121153</v>
+        <v>0.6806297847753866</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.7878648721985991</v>
+        <v>0.9706594875769066</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7269717637147165</v>
+        <v>0.9429916299436713</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5531709091721128</v>
+        <v>0.9429916299436714</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>3.7139764656808367</v>
+        <v>33.08256766548222</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.04567836305975956</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.01076605873639077</v>
-      </c>
+        <v>0.016462683859478584</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.54778665313327</v>
+        <v>0.9429916299436714</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.796444703482442</v>
+        <v>0.7040454222853088</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.7967870899841842</v>
+        <v>0.9462901507647705</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7390892969299206</v>
+        <v>0.8980557137731768</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.566533320588685</v>
+        <v>0.8980557137731768</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>3.920947197312277</v>
+        <v>17.618559058327765</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.04323869838667636</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.010384814517332312</v>
-      </c>
+        <v>0.022750523586507258</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5995681313615133</v>
+        <v>0.8980557137731768</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.7682380240948538</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.7674249284983963</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.6990603697747741</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5237858605571705</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>3.2996869507276694</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.04861941514788214</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.008137825175064565</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.54778665313327</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>68.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9446144000534156</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9662822858695636</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9430230304263455</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9262296024223576</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.08823529411764706</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.2857456398198083</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>68.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.797875234401907</v>
+        <v>0.9901473792230218</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.7961314694208208</v>
+        <v>0.9793089788615135</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.6987074423167055</v>
+        <v>0.976839768063784</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6276611905063773</v>
+        <v>0.9720407303228723</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.338235294117647</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.0873807241866797</v>
+        <v>0.848486748835806</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>68.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8217639241122717</v>
+        <v>0.9973644266989654</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8181302844699699</v>
+        <v>0.9945923495842492</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.749743086776043</v>
+        <v>0.9966944735064207</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6693519299236336</v>
+        <v>0.9908668996693178</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.088235294117647</v>
+        <v>0.27941176470588236</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.0753034159471797</v>
+        <v>0.9595643948788573</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>68.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.7992890106474616</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8058533331693196</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7283505728850129</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.6457656741925865</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.5</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.014815621809527</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>68.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8461121483991128</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8451283164543371</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7969680274242161</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7069291898726099</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>4.0</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.092716729416306</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.9117647058823529</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.08823529411764706</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.9117647058823529</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.029411764705882353</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.029411764705882353</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.029411764705882353</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
+        <v>0.9117647058823529</v>
+      </c>
+      <c r="C27" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="226">
+        <v>0.029411764705882353</v>
+      </c>
+      <c r="E27" t="n" s="227">
+        <v>0.029411764705882353</v>
+      </c>
+      <c r="F27" t="n" s="228">
         <v>0.014705882352941176</v>
       </c>
-      <c r="C27" t="n" s="225">
-        <v>0.08823529411764706</v>
-      </c>
-      <c r="D27" t="n" s="226">
+      <c r="G27" t="n" s="229">
         <v>0.014705882352941176</v>
       </c>
-      <c r="E27" t="n" s="227">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="F27" t="n" s="228">
-        <v>0.36764705882352944</v>
-      </c>
-      <c r="G27" t="n" s="229">
-        <v>0.10294117647058823</v>
-      </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.014705882352941176</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.029411764705882353</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.29411764705882354</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.16176470588235295</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.5</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.08823529411764706</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.014705882352941176</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.3088235294117647</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.4852941176470588</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.10294117647058823</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.08823529411764706</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.3235294117647059</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.08823529411764706</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.5</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.80046532240195</v>
+        <v>0.6939348101883478</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8282132805398081</v>
+        <v>0.8342453598682882</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.7067952442073605</v>
+        <v>0.7950180837988776</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.7067952442073606</v>
+        <v>0.6265411531365688</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>4.821171759623307</v>
+        <v>5.03301361099382</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.04339901335715756</v>
+        <v>0.033832831950712024</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.764705882352941</v>
+        <v>2.1470588235294117</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.4075239936856148</v>
+        <v>0.9998048780469231</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.7067952442073605</v>
+        <v>0.6827834548404219</v>
       </c>
     </row>
     <row r="7">
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
+        <v>0.80046532240195</v>
+      </c>
+      <c r="C11" t="n" s="289">
+        <v>0.8282132805398081</v>
+      </c>
+      <c r="D11" t="n" s="290">
         <v>0.7067952442073605</v>
       </c>
-      <c r="C11" t="n" s="289">
-        <v>0.7067952442073605</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.4995595172341424</v>
-      </c>
       <c r="E11" t="n" s="291">
-        <v>0.7067952442073605</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.7067952442073605</v>
-      </c>
+        <v>0.7067952442073606</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>4.821171759623307</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.04339901335715756</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.7067952442073605</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.4995595172341424</v>
+        <v>0.26627531552685646</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.7067952442073605</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.4995595172341424</v>
-      </c>
+        <v>0.6577584424281249</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.4900447603619239</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.4900447603619238</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.9219128357607103</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.04920088936304305</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.7067952442073605</v>
+        <v>0.49004476036192385</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.45448101265822793</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.8114929498224359</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.6827834548404219</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.6827834548404219</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>4.304841378919519</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.04355873577721299</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.6827834548404219</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>68.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8946897413554982</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9237952273657188</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7766449515195161</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7067952442073605</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.75</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.2622533747586309</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>68.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9483577437536186</v>
+        <v>0.6730162140073555</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9237952273657188</v>
+        <v>0.8357497133108571</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7766449515195161</v>
+        <v>0.7070928074010567</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.7067952442073604</v>
+        <v>0.6155877446004423</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9117647058823529</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.2857456398198083</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>68.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9047421853576503</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9191199279768811</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8791948179740955</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7506214077490426</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.75</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.2622533747586309</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>68.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.936749684245103</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8449855313746569</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7318416922694168</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7010999537698683</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.7794117647058822</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.7775178755974526</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.08823529411764706</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.9117647058823529</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.08823529411764706</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.11764705882352941</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.04411764705882353</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.47058823529411764</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.2647058823529412</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.014705882352941176</v>
       </c>
-      <c r="H23" t="n" s="345">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+      <c r="H26" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.08823529411764706</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.22058823529411764</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.22058823529411764</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.04411764705882353</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.14705882352941177</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.27941176470588236</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.9082229878377817</v>
+        <v>0.6124172185430463</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.9082237460752751</v>
+        <v>0.736083518194724</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8318771752091021</v>
+        <v>0.6660487564838566</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8318771752091019</v>
+        <v>0.48178271822020546</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>9.896064692509714</v>
+        <v>2.789077488301107</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.02225908447555716</v>
+        <v>0.04443891381440116</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.051470588235294</v>
+        <v>2.8039215686274512</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.1497556712622248</v>
+        <v>0.6647616915302751</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.831877175209102</v>
+        <v>0.4679339023020052</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.831877175209102</v>
+        <v>0.7496332805257291</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.831877175209102</v>
+        <v>0.7496625115320041</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6920196346338752</v>
+        <v>0.5995681313615131</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.831877175209102</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.831877175209102</v>
-      </c>
+        <v>0.5995681313615133</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>2.994607464186666</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.06071693633181515</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.831877175209102</v>
+        <v>0.5995681313615133</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6920196346338752</v>
+        <v>0.18876251909692776</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.831877175209102</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6920196346338752</v>
-      </c>
+        <v>0.6375408341863269</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.46793390230200516</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.46793390230200527</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>1.7589314723360125</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.038939183852262124</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.831877175209102</v>
+        <v>0.4679339023020052</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.15368991198375093</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.5484590989357565</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.3778461209970977</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.3778461209970978</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>1.214638801586047</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.04201360634042216</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.37784612099709786</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>68.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9569699643857323</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9570468053363695</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8728965602644386</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.831877175209102</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.1470588235294117</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.2003072477601144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>68.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9571235791221224</v>
+        <v>0.5191340686307725</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9570468053363695</v>
+        <v>0.7604954579258634</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8728965602644385</v>
+        <v>0.5449968889717091</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8318771752091021</v>
+        <v>0.4725861120007704</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.9558823529411764</v>
+        <v>0.9852941176470589</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.2024083237392222</v>
+        <v>0.12126781251816648</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>68.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.8915069260393261</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8147311913522114</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.6810520757587973</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.6072745418830522</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.338235294117647</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.0873807241866797</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>68.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.8945599544877512</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8518490210134865</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.7547314248249464</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.622352717222234</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>4.088235294117647</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.0753034159471797</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.014705882352941176</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9852941176470589</v>
+      </c>
+      <c r="D25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.014705882352941176</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.08823529411764706</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.014705882352941176</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.36764705882352944</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.10294117647058823</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.014705882352941176</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.029411764705882353</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="F27" t="n" s="458">
         <v>0.16176470588235295</v>
       </c>
-      <c r="C23" t="n" s="455">
-        <v>0.04411764705882353</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.39705882352941174</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.27941176470588236</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.20588235294117646</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.029411764705882353</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.45588235294117646</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.22058823529411764</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.08823529411764706</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="G27" t="n" s="459">
+        <v>0.5</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9867841409691631</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9905579308557535</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9812924992273191</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9812924992273189</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>104.9089893034046</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.002698976529720315</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.25735294117647056</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>0.8998036562728374</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.981292499227319</v>
+      <c r="A6" t="n" s="491">
+        <v>0.46547036432843925</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.46994766531905485</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.3071448307139448</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.3071448307139448</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>0.8866061605066432</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.12786843462348096</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.9264705882352942</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.1004229372896048</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.30714483071394494</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9812924992273189</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9812924992273189</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.962934969039798</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9812924992273189</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9812924992273189</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9812924992273189</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.30714483071394494</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.30714483071394494</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.09433794703429754</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.30714483071394494</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.30714483071394494</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.30714483071394494</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.962934969039798</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9812924992273189</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.962934969039798</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9812924992273189</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.09433794703429754</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.30714483071394494</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.09433794703429754</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.30714483071394494</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>68.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9947170583141294</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9953121367760264</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9859582821466426</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.981292499227319</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.23529411764705882</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>0.848486748835806</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8409169772386299</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.808438256985017</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.44804172671094056</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.307144830713945</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.3823529411764706</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.466332736614999</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>68.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.995871746414523</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9953121367760264</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9859582821466425</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.981292499227319</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.27941176470588236</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>0.9595643948788573</v>
+      <c r="C18" t="n" s="545">
+        <v>0.7732890839151536</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.808438256985017</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.44804172671094095</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.307144830713945</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.4705882352941178</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.2515135700338726</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.9117647058823529</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.029411764705882353</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.029411764705882353</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.029411764705882353</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.0</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.4264705882352941</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.08823529411764706</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.20588235294117646</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.10294117647058823</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.9117647058823529</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.0</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.029411764705882353</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.029411764705882353</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.014705882352941176</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.014705882352941176</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.1323529411764706</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.10294117647058823</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.07352941176470588</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.5441176470588235</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.46547036432843925</v>
+        <v>0.9082229878377817</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.46994766531905485</v>
+        <v>0.9082237460752751</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.3071448307139448</v>
+        <v>0.8318771752091021</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.3071448307139448</v>
+        <v>0.8318771752091019</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>0.8866061605066432</v>
+        <v>9.896064692509714</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.12786843462348096</v>
+        <v>0.02225908447555716</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.9264705882352942</v>
+        <v>2.051470588235294</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.1004229372896048</v>
+        <v>1.1497556712622248</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.30714483071394494</v>
+        <v>0.831877175209102</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.30714483071394494</v>
+        <v>0.831877175209102</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.30714483071394494</v>
+        <v>0.831877175209102</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.09433794703429754</v>
+        <v>0.6920196346338752</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.30714483071394494</v>
+        <v>0.831877175209102</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.30714483071394494</v>
+        <v>0.831877175209102</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.30714483071394494</v>
+        <v>0.831877175209102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.09433794703429754</v>
+        <v>0.6920196346338752</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.30714483071394494</v>
+        <v>0.831877175209102</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.09433794703429754</v>
+        <v>0.6920196346338752</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.30714483071394494</v>
+        <v>0.831877175209102</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>68.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8409169772386299</v>
+        <v>0.9569699643857323</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.808438256985017</v>
+        <v>0.9570468053363695</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.44804172671094056</v>
+        <v>0.8728965602644386</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.307144830713945</v>
+        <v>0.831877175209102</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.3823529411764706</v>
+        <v>2.1470588235294117</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.466332736614999</v>
+        <v>1.2003072477601144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>68.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.7732890839151536</v>
+        <v>0.9571235791221224</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.808438256985017</v>
+        <v>0.9570468053363695</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.44804172671094095</v>
+        <v>0.8728965602644385</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.307144830713945</v>
+        <v>0.8318771752091021</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.4705882352941178</v>
+        <v>1.9558823529411764</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.2515135700338726</v>
+        <v>1.2024083237392222</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.4264705882352941</v>
+        <v>0.16176470588235295</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.17647058823529413</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.08823529411764706</v>
+        <v>0.39705882352941174</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.20588235294117646</v>
+        <v>0.27941176470588236</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.10294117647058823</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.1323529411764706</v>
+        <v>0.20588235294117646</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.10294117647058823</v>
+        <v>0.029411764705882353</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.07352941176470588</v>
+        <v>0.45588235294117646</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.5441176470588235</v>
+        <v>0.22058823529411764</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.14705882352941177</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.7276668092794244</v>
+        <v>0.6728569215192428</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.7273132862248847</v>
+        <v>0.7189506704293845</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.867933742696161</v>
+        <v>0.854622352300414</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.21056030576066115</v>
+        <v>0.2037008314418938</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>2.6672120403515507</v>
+        <v>2.558094237505532</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.04963883268451676</v>
+        <v>0.05722963713935982</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.3397058823529413</v>
+        <v>1.6970588235294117</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.60916867891239</v>
+        <v>0.5203244074858115</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.13509134362212924</v>
+        <v>0.12141697919630089</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.6946244365464633</v>
+        <v>0.6619723112596331</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.6927845799344321</v>
+        <v>0.6813427166244953</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8486301611381923</v>
+        <v>0.821202609882238</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.20035859081257884</v>
+        <v>0.19196763531091887</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>2.2550449446403875</v>
+        <v>2.1381677186446195</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.05593778953463189</v>
+        <v>0.06000088836948873</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.06715186079915182</v>
+        <v>0.053889225105241176</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.13626745842478294</v>
+        <v>0.1259825176808774</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.697177422243876</v>
+        <v>0.6484745509541059</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.6954325864992691</v>
+        <v>0.6808220909263469</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8400710161756534</v>
+        <v>0.8149987147871602</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.20236421707127633</v>
+        <v>0.1915961141410158</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>2.2833453471134395</v>
+        <v>2.1330489096262655</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.05536701010216528</v>
+        <v>0.06008224835826225</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.06340102209629679</v>
+        <v>0.052115139339103916</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.13626745842478294</v>
+        <v>0.12699495547989412</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.6954155308988165</v>
+        <v>0.6512512906006385</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.6947874098563054</v>
+        <v>0.6799280130330542</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8410159746892015</v>
+        <v>0.807428612284461</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.2018732789829095</v>
+        <v>0.19096012357085015</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>2.276404815178817</v>
+        <v>2.1242971603862078</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.05593296815889656</v>
+        <v>0.05921611270114169</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.06118112551926575</v>
+        <v>0.05003269094957132</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.13176294442716868</v>
+        <v>0.1259825176808774</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.6921881249318256</v>
+        <v>0.6756972815677635</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.691336056515092</v>
+        <v>0.7148559851767495</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8365532052869684</v>
+        <v>0.8608323343851361</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.1992718287112885</v>
+        <v>0.2178673707712196</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>2.2397694032859863</v>
+        <v>2.5069997896321286</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.05635627425472346</v>
+        <v>0.05862401883826895</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.06087507745136753</v>
+        <v>0.08041528329468138</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.13403458815550634</v>
+        <v>0.13156049396447062</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.6959673439928119</v>
+        <v>0.6509126593744825</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.6994475128471438</v>
+        <v>0.7040998928814779</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.824951513464406</v>
+        <v>0.8465968863891685</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.20545277432367165</v>
+        <v>0.20910540321008064</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>2.327205871669981</v>
+        <v>2.379518884727716</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.05543454862991552</v>
+        <v>0.060678160170637166</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.06700206112600593</v>
+        <v>0.0776328468657139</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.13403458815550634</v>
+        <v>0.12328846326078702</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7062278846983688</v>
+        <v>0.6580367393800228</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7095043665305705</v>
+        <v>0.7068204606480695</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8307982445617725</v>
+        <v>0.8393322376529687</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.21345121024682578</v>
+        <v>0.21127900642372927</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>2.442392534637651</v>
+        <v>2.4108792251003828</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.05349954447557105</v>
+        <v>0.05936627715716572</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.0665292548227364</v>
+        <v>0.07428829763391531</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.13626745842478294</v>
+        <v>0.13156049396447062</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7304938004292255</v>
+        <v>0.6586583596483742</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.732771371419106</v>
+        <v>0.707509343341579</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.817943710167932</v>
+        <v>0.861481360055921</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.23352813831766803</v>
+        <v>0.21183388539891418</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>2.7421140291384813</v>
+        <v>2.4189126292941</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.04907967823863739</v>
+        <v>0.06072109190055592</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.05196971613252199</v>
+        <v>0.08682895660420255</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.17971609208066402</v>
+        <v>0.06571588840883695</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7343148760966599</v>
+        <v>0.6128108961705488</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.7327807472290623</v>
+        <v>0.6824995772093493</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8183583321741172</v>
+        <v>0.845616008030612</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.2335367087579641</v>
+        <v>0.1927963065281192</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>2.742245327125464</v>
+        <v>2.1496021051265393</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.04819985136964943</v>
+        <v>0.06890774309843184</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.05216871489917613</v>
+        <v>0.08555853976242724</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.17971609208066402</v>
+        <v>0.06571588840883695</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7295267437566524</v>
+        <v>0.6290119835749602</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.722164678144642</v>
+        <v>0.70355727452024</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.876903915555284</v>
+        <v>0.8135728469959305</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.2240880575027947</v>
+        <v>0.20867523390020784</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>2.5992543832155492</v>
+        <v>2.373332903958462</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.0498528313146506</v>
+        <v>0.06491548394379257</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.07824925203803994</v>
+        <v>0.07301141909628577</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.142306170076952</v>
+        <v>0.13156049396447062</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.67830946491847</v>
+        <v>0.6331727621363763</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.68093730001583</v>
+        <v>0.706382557650034</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.8577159836502827</v>
+        <v>0.8149554530987079</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.1916782528796339</v>
+        <v>0.21092723516388234</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>2.1341802098760336</v>
+        <v>2.4057922172351343</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.059715834427144135</v>
+        <v>0.0641254530463729</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.07686350870374113</v>
+        <v>0.07250675505904652</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.10598648006252162</v>
+        <v>0.13156049396447062</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>68.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.5968083836471152</v>
+        <v>0.47358379527734384</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.6063131717803362</v>
+        <v>0.6116427954376563</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.5500063881427316</v>
+        <v>0.6437022009004586</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.46228015623398727</v>
+        <v>0.4293172568925798</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.338235294117647</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.0873807241866797</v>
+        <v>0.2857456398198083</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>68.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.582434965517152</v>
+        <v>0.4850302371961166</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.5928940214852285</v>
+        <v>0.6141554871776024</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.5544581070193301</v>
+        <v>0.6583321340414657</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.4467526024968281</v>
+        <v>0.34549577825717936</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>4.088235294117647</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.0753034159471797</v>
+        <v>0.848486748835806</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>68.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.5903089274210794</v>
+        <v>0.48295598905579024</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.5961787670677211</v>
+        <v>0.6184568524342731</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.5585894882198216</v>
+        <v>0.6655540998894232</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.46479136518863684</v>
+        <v>0.32269737320814196</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.5</v>
+        <v>0.27941176470588236</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.014815621809527</v>
+        <v>0.9595643948788573</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>68.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6098863924929013</v>
+        <v>0.3068069036605566</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6135844287799894</v>
+        <v>0.43647632679507303</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.5838109261293243</v>
+        <v>0.31861852900267207</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.47734860198378576</v>
+        <v>0.28547124280226144</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>4.0</v>
+        <v>0.9852941176470589</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.092716729416306</v>
+        <v>0.12126781251816648</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>68.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.5981449171481025</v>
+        <v>0.5056362163132616</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.5722292471858265</v>
+        <v>0.4957357319113199</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.5593635779442814</v>
+        <v>0.41369630541762203</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.44758021268503473</v>
+        <v>0.3251637822148121</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.1470588235294117</v>
+        <v>3.338235294117647</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.2003072477601144</v>
+        <v>1.0873807241866797</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>68.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5485250659141399</v>
+        <v>0.4726351527929036</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.5187136864909347</v>
+        <v>0.48103510302850333</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.4990503076022857</v>
+        <v>0.4131636675812972</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.38719838343236707</v>
+        <v>0.2889396285870783</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.9558823529411764</v>
+        <v>4.088235294117647</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.2024083237392222</v>
+        <v>1.0753034159471797</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>68.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.3252837923398667</v>
+        <v>0.566844522771683</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.3843839158876794</v>
+        <v>0.47728231602586635</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.40555291989525966</v>
+        <v>0.3482233186076908</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.1929967616271404</v>
+        <v>0.3269703718671267</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.23529411764705882</v>
+        <v>1.3823529411764706</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>0.848486748835806</v>
+        <v>1.466332736614999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>68.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.32544184306425555</v>
+        <v>0.6622544309616551</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.3843265731868998</v>
+        <v>0.6060382821790085</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.4054238360839031</v>
+        <v>0.5150683086516014</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.17485326976802545</v>
+        <v>0.4904903526480449</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.27941176470588236</v>
+        <v>2.4705882352941178</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>0.9595643948788573</v>
+        <v>1.2515135700338726</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>68.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5007347671224792</v>
+        <v>0.6053181200013096</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.44754516674556166</v>
+        <v>0.49864507587138984</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.3169675575655153</v>
+        <v>0.4806398923607882</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.28769712584608087</v>
+        <v>0.4258465220909266</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.3823529411764706</v>
+        <v>2.1470588235294117</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.466332736614999</v>
+        <v>1.2003072477601144</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>68.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.679906974584616</v>
+        <v>0.5914202107900236</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.6643911705248083</v>
+        <v>0.4834142211261297</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.5794660807200304</v>
+        <v>0.4637818738322155</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.5432300089005844</v>
+        <v>0.4079796283540183</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.4705882352941178</v>
+        <v>1.9558823529411764</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.2515135700338726</v>
+        <v>1.2024083237392222</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.014705882352941176</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C39" t="n" s="798">
         <v>0.08823529411764706</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.014705882352941176</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.4117647058823529</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.36764705882352944</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.10294117647058823</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.014705882352941176</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.0</v>
+        <v>0.029411764705882353</v>
       </c>
       <c r="D40" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n" s="800">
         <v>0.029411764705882353</v>
       </c>
-      <c r="E40" t="n" s="800">
-        <v>0.29411764705882354</v>
-      </c>
       <c r="F40" t="n" s="801">
-        <v>0.16176470588235295</v>
+        <v>0.029411764705882353</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.0</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.08823529411764706</v>
+        <v>0.0</v>
       </c>
       <c r="D41" t="n" s="799">
+        <v>0.029411764705882353</v>
+      </c>
+      <c r="E41" t="n" s="800">
+        <v>0.029411764705882353</v>
+      </c>
+      <c r="F41" t="n" s="801">
         <v>0.014705882352941176</v>
       </c>
-      <c r="E41" t="n" s="800">
-        <v>0.3088235294117647</v>
-      </c>
-      <c r="F41" t="n" s="801">
-        <v>0.4852941176470588</v>
-      </c>
       <c r="G41" t="n" s="802">
-        <v>0.10294117647058823</v>
+        <v>0.014705882352941176</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.0</v>
+        <v>0.014705882352941176</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.0</v>
+        <v>0.9852941176470589</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.08823529411764706</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.3235294117647059</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.08823529411764706</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.16176470588235295</v>
+        <v>0.014705882352941176</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.04411764705882353</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.39705882352941174</v>
+        <v>0.014705882352941176</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.27941176470588236</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.11764705882352941</v>
+        <v>0.36764705882352944</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.10294117647058823</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.20588235294117646</v>
+        <v>0.014705882352941176</v>
       </c>
       <c r="C44" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="D44" t="n" s="799">
         <v>0.029411764705882353</v>
       </c>
-      <c r="D44" t="n" s="799">
-        <v>0.45588235294117646</v>
-      </c>
       <c r="E44" t="n" s="800">
-        <v>0.22058823529411764</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.08823529411764706</v>
+        <v>0.16176470588235295</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,22 +8376,22 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.9117647058823529</v>
+        <v>0.4264705882352941</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.029411764705882353</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.0</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.029411764705882353</v>
+        <v>0.20588235294117646</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.029411764705882353</v>
+        <v>0.10294117647058823</v>
       </c>
       <c r="G45" t="n" s="802">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.9117647058823529</v>
+        <v>0.1323529411764706</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.0</v>
+        <v>0.10294117647058823</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.029411764705882353</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.029411764705882353</v>
+        <v>0.5441176470588235</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.014705882352941176</v>
+        <v>0.14705882352941177</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.014705882352941176</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.4264705882352941</v>
+        <v>0.16176470588235295</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.17647058823529413</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.08823529411764706</v>
+        <v>0.39705882352941174</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.20588235294117646</v>
+        <v>0.27941176470588236</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.10294117647058823</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.1323529411764706</v>
+        <v>0.20588235294117646</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.10294117647058823</v>
+        <v>0.029411764705882353</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.07352941176470588</v>
+        <v>0.45588235294117646</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.5441176470588235</v>
+        <v>0.22058823529411764</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.14705882352941177</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
